--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB9AC4-1928-42BB-992C-E85FE1504DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4ACD0-D47C-40C5-84FE-FBDBC9FA6ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>in_service</t>
   </si>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>load_bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63F646-96F5-4CF3-9F80-204F988A375B}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1904,7 +1908,9 @@
       <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
@@ -1950,7 +1956,9 @@
       <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -1996,7 +2004,9 @@
       <c r="I4" s="1">
         <v>100</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
@@ -2042,7 +2052,9 @@
       <c r="I5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
@@ -2088,7 +2100,9 @@
       <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
@@ -2134,7 +2148,9 @@
       <c r="I7" s="1">
         <v>100</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -2180,7 +2196,9 @@
       <c r="I8" s="1">
         <v>100</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
@@ -2226,7 +2244,9 @@
       <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
@@ -2272,7 +2292,9 @@
       <c r="I10" s="1">
         <v>100</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
@@ -2318,7 +2340,9 @@
       <c r="I11" s="1">
         <v>100</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
@@ -2364,7 +2388,9 @@
       <c r="I12" s="1">
         <v>100</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
@@ -2410,7 +2436,9 @@
       <c r="I13" s="1">
         <v>100</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
       <c r="K13" s="1">
         <v>1</v>
       </c>
@@ -2456,7 +2484,9 @@
       <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
@@ -2502,7 +2532,9 @@
       <c r="I15" s="1">
         <v>100</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
@@ -2548,7 +2580,9 @@
       <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>14</v>
+      </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
@@ -2594,7 +2628,9 @@
       <c r="I17" s="1">
         <v>100</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>15</v>
+      </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
@@ -2640,7 +2676,9 @@
       <c r="I18" s="1">
         <v>100</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
@@ -2686,7 +2724,9 @@
       <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
@@ -2732,7 +2772,9 @@
       <c r="I20" s="1">
         <v>100</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>18</v>
+      </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
@@ -2778,7 +2820,9 @@
       <c r="I21" s="1">
         <v>100</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
@@ -2824,7 +2868,9 @@
       <c r="I22" s="1">
         <v>100</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
@@ -2870,7 +2916,9 @@
       <c r="I23" s="1">
         <v>100</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
       <c r="K23" s="1">
         <v>1</v>
       </c>
@@ -2916,7 +2964,9 @@
       <c r="I24" s="1">
         <v>100</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>22</v>
+      </c>
       <c r="K24" s="1">
         <v>1</v>
       </c>
@@ -2962,7 +3012,9 @@
       <c r="I25" s="1">
         <v>100</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>23</v>
+      </c>
       <c r="K25" s="1">
         <v>1</v>
       </c>
@@ -3008,7 +3060,9 @@
       <c r="I26" s="1">
         <v>100</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>24</v>
+      </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
@@ -3054,7 +3108,9 @@
       <c r="I27" s="1">
         <v>100</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>25</v>
+      </c>
       <c r="K27" s="1">
         <v>1</v>
       </c>
@@ -3100,7 +3156,9 @@
       <c r="I28" s="1">
         <v>100</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>26</v>
+      </c>
       <c r="K28" s="1">
         <v>1</v>
       </c>
@@ -3146,7 +3204,9 @@
       <c r="I29" s="1">
         <v>100</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>27</v>
+      </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
@@ -3192,7 +3252,9 @@
       <c r="I30" s="1">
         <v>100</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>28</v>
+      </c>
       <c r="K30" s="1">
         <v>1</v>
       </c>
@@ -3238,7 +3300,9 @@
       <c r="I31" s="1">
         <v>100</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>29</v>
+      </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
@@ -3284,7 +3348,9 @@
       <c r="I32" s="1">
         <v>100</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
@@ -3330,7 +3396,9 @@
       <c r="I33" s="1">
         <v>100</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>31</v>
+      </c>
       <c r="K33" s="1">
         <v>1</v>
       </c>
@@ -3376,7 +3444,9 @@
       <c r="I34" s="1">
         <v>100</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>32</v>
+      </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
@@ -3422,7 +3492,9 @@
       <c r="I35" s="1">
         <v>100</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>33</v>
+      </c>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -3443,6 +3515,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3451,7 +3524,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,7 +3587,9 @@
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="1">
         <v>21.7</v>
       </c>
@@ -3552,7 +3627,9 @@
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1">
         <v>2.4</v>
       </c>
@@ -3590,7 +3667,9 @@
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
       <c r="H4" s="1">
         <v>7.6</v>
       </c>
@@ -3628,7 +3707,9 @@
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
       <c r="H5" s="1">
         <v>94.2</v>
       </c>
@@ -3666,7 +3747,9 @@
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
       <c r="H6" s="1">
         <v>22.8</v>
       </c>
@@ -3704,7 +3787,9 @@
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
       <c r="H7" s="1">
         <v>30</v>
       </c>
@@ -3742,7 +3827,9 @@
       <c r="F8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
       <c r="H8" s="1">
         <v>5.8</v>
       </c>
@@ -3780,7 +3867,9 @@
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
       <c r="H9" s="1">
         <v>11.2</v>
       </c>
@@ -3818,7 +3907,9 @@
       <c r="F10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
       <c r="H10" s="1">
         <v>6.2</v>
       </c>
@@ -3856,7 +3947,9 @@
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
       <c r="H11" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -3894,7 +3987,9 @@
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
       <c r="H12" s="1">
         <v>3.5</v>
       </c>
@@ -3932,7 +4027,9 @@
       <c r="F13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
       <c r="H13" s="1">
         <v>9</v>
       </c>
@@ -3970,7 +4067,9 @@
       <c r="F14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
       <c r="H14" s="1">
         <v>3.2</v>
       </c>
@@ -4008,7 +4107,9 @@
       <c r="F15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
       <c r="H15" s="1">
         <v>9.5</v>
       </c>
@@ -4046,7 +4147,9 @@
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
       <c r="H16" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -4084,7 +4187,9 @@
       <c r="F17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
       <c r="H17" s="1">
         <v>17.5</v>
       </c>
@@ -4122,7 +4227,9 @@
       <c r="F18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
       <c r="H18" s="1">
         <v>3.2</v>
       </c>
@@ -4160,7 +4267,9 @@
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
       <c r="H19" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -4198,7 +4307,9 @@
       <c r="F20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
       <c r="H20" s="1">
         <v>3.5</v>
       </c>
@@ -4236,7 +4347,9 @@
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
       <c r="H21" s="1">
         <v>2.4</v>
       </c>
@@ -4274,7 +4387,9 @@
       <c r="F22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
       <c r="H22" s="1">
         <v>10.6</v>
       </c>
@@ -4304,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA1BD7-203C-415B-A88A-CF53C58616F4}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4407,7 +4522,9 @@
       <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -4474,7 +4591,9 @@
       <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
@@ -4541,7 +4660,9 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
@@ -4600,7 +4721,9 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
@@ -4659,7 +4782,9 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
@@ -4726,7 +4851,9 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
@@ -4785,7 +4912,9 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -4838,10 +4967,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0CA76C-0793-402B-905F-2F7604D9F2D1}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4858,7 +4987,7 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -4889,8 +5018,11 @@
       <c r="J1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4922,8 +5054,7 @@
         <v>3.6162097804000108</v>
       </c>
       <c r="I2">
-        <f>500*K2</f>
-        <v>500.00000000000011</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
         <f>K2*1.05</f>
@@ -4933,8 +5064,11 @@
         <f>H2/3.61620978040001</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4946,19 +5080,18 @@
         <v>221.19815668202773</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" si="1">2*K3</f>
-        <v>0.22119815668202772</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="2">K3*660</f>
+        <f t="shared" ref="E3:E22" si="1">K3*660</f>
         <v>72.995391705069153</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="3">1.2*K3</f>
+        <f t="shared" ref="F3:F22" si="2">1.2*K3</f>
         <v>0.13271889400921663</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" si="4">K3*0.8</f>
+        <f t="shared" ref="G3:G22" si="3">K3*0.8</f>
         <v>8.8479262672811088E-2</v>
       </c>
       <c r="H3">
@@ -4966,19 +5099,21 @@
         <v>0.39994946880000121</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I22" si="5">500*K3</f>
-        <v>55.299539170506932</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J22" si="6">K3*1.05</f>
+        <f t="shared" ref="J3:J22" si="4">K3*1.05</f>
         <v>0.11612903225806456</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K22" si="7">H3/3.61620978040001</f>
+        <f t="shared" ref="K3:K22" si="5">H3/3.61620978040001</f>
         <v>0.11059907834101386</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4990,19 +5125,18 @@
         <v>700.46082949308777</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.70046082949308774</v>
-      </c>
-      <c r="E4">
+        <v>231.15207373271895</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="2"/>
-        <v>231.15207373271895</v>
-      </c>
-      <c r="F4">
+        <v>0.42027649769585262</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="3"/>
-        <v>0.42027649769585262</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
         <v>0.28018433179723512</v>
       </c>
       <c r="H4">
@@ -5010,19 +5144,21 @@
         <v>1.2665066512000038</v>
       </c>
       <c r="I4">
+        <v>0.8</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.36774193548387107</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="5"/>
-        <v>175.11520737327194</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="6"/>
-        <v>0.36774193548387107</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="7"/>
         <v>0.35023041474654387</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5034,19 +5170,18 @@
         <v>8682.0276497695868</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>8.6820276497695872</v>
-      </c>
-      <c r="E5">
+        <v>2865.0691244239638</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="2"/>
-        <v>2865.0691244239638</v>
-      </c>
-      <c r="F5">
+        <v>5.209216589861752</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="3"/>
-        <v>5.209216589861752</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
         <v>3.4728110599078352</v>
       </c>
       <c r="H5">
@@ -5054,19 +5189,21 @@
         <v>15.698016650400048</v>
       </c>
       <c r="I5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>4.5580645161290336</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="5"/>
-        <v>2170.5069124423967</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="6"/>
-        <v>4.5580645161290336</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="7"/>
         <v>4.3410138248847936</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5078,19 +5215,18 @@
         <v>2101.3824884792634</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>2.1013824884792633</v>
-      </c>
-      <c r="E6">
+        <v>693.45622119815687</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
-        <v>693.45622119815687</v>
-      </c>
-      <c r="F6">
+        <v>1.2608294930875579</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="3"/>
-        <v>1.2608294930875579</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
         <v>0.84055299539170536</v>
       </c>
       <c r="H6">
@@ -5098,19 +5234,21 @@
         <v>3.7995199536000115</v>
       </c>
       <c r="I6">
+        <v>0.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.1032258064516134</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="5"/>
-        <v>525.34562211981586</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>1.1032258064516134</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="7"/>
         <v>1.0506912442396317</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5122,19 +5260,18 @@
         <v>2764.9769585253466</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>2.7649769585253465</v>
-      </c>
-      <c r="E7">
+        <v>912.44239631336438</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>912.44239631336438</v>
-      </c>
-      <c r="F7">
+        <v>1.658986175115208</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.658986175115208</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
         <v>1.1059907834101386</v>
       </c>
       <c r="H7">
@@ -5142,19 +5279,21 @@
         <v>4.9993683600000152</v>
       </c>
       <c r="I7">
+        <v>0.8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.4516129032258069</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="5"/>
-        <v>691.24423963133665</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>1.4516129032258069</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="7"/>
         <v>1.3824884792626733</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5166,19 +5305,18 @@
         <v>534.56221198156697</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.53456221198156695</v>
-      </c>
-      <c r="E8">
+        <v>176.4055299539171</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>176.4055299539171</v>
-      </c>
-      <c r="F8">
+        <v>0.32073732718894016</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.32073732718894016</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
         <v>0.21382488479262679</v>
       </c>
       <c r="H8">
@@ -5186,19 +5324,21 @@
         <v>0.9665445496000028</v>
       </c>
       <c r="I8">
+        <v>0.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.28064516129032269</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="5"/>
-        <v>133.64055299539174</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>0.28064516129032269</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="7"/>
         <v>0.26728110599078347</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5210,19 +5350,18 @@
         <v>1032.2580645161293</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>1.0322580645161292</v>
-      </c>
-      <c r="E9">
+        <v>340.64516129032262</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>340.64516129032262</v>
-      </c>
-      <c r="F9">
+        <v>0.61935483870967756</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>0.61935483870967756</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
         <v>0.41290322580645172</v>
       </c>
       <c r="H9">
@@ -5230,19 +5369,21 @@
         <v>1.8664308544000054</v>
       </c>
       <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.5419354838709679</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="5"/>
-        <v>258.06451612903231</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>0.5419354838709679</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="7"/>
         <v>0.51612903225806461</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5254,19 +5395,18 @@
         <v>571.42857142857167</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.57142857142857162</v>
-      </c>
-      <c r="E10">
+        <v>188.57142857142864</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>188.57142857142864</v>
-      </c>
-      <c r="F10">
+        <v>0.34285714285714297</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>0.34285714285714297</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
         <v>0.22857142857142865</v>
       </c>
       <c r="H10">
@@ -5274,19 +5414,21 @@
         <v>1.0332027944000033</v>
       </c>
       <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="5"/>
-        <v>142.85714285714292</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="6"/>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="7"/>
         <v>0.28571428571428581</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5298,19 +5440,18 @@
         <v>755.76036866359459</v>
       </c>
       <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.75576036866359464</v>
-      </c>
-      <c r="E11">
+        <v>249.40092165898622</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>249.40092165898622</v>
-      </c>
-      <c r="F11">
+        <v>0.45345622119815676</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.45345622119815676</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
         <v>0.30230414746543788</v>
       </c>
       <c r="H11">
@@ -5318,19 +5459,21 @@
         <v>1.3664940184000041</v>
       </c>
       <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.39677419354838722</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="5"/>
-        <v>188.94009216589865</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="6"/>
-        <v>0.39677419354838722</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="7"/>
         <v>0.37788018433179732</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5342,19 +5485,18 @@
         <v>322.58064516129042</v>
       </c>
       <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.32258064516129042</v>
-      </c>
-      <c r="E12">
+        <v>106.45161290322584</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>106.45161290322584</v>
-      </c>
-      <c r="F12">
+        <v>0.19354838709677424</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.19354838709677424</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
         <v>0.12903225806451618</v>
       </c>
       <c r="H12">
@@ -5362,19 +5504,21 @@
         <v>0.5832596420000018</v>
       </c>
       <c r="I12">
+        <v>0.8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.16935483870967749</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="5"/>
-        <v>80.645161290322605</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>0.16935483870967749</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="7"/>
         <v>0.16129032258064521</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5386,19 +5530,18 @@
         <v>829.49308755760399</v>
       </c>
       <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.82949308755760398</v>
-      </c>
-      <c r="E13">
+        <v>273.73271889400934</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>273.73271889400934</v>
-      </c>
-      <c r="F13">
+        <v>0.49769585253456239</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.49769585253456239</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
         <v>0.33179723502304159</v>
       </c>
       <c r="H13">
@@ -5406,19 +5549,21 @@
         <v>1.4998105080000046</v>
       </c>
       <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.4354838709677421</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="5"/>
-        <v>207.373271889401</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>0.4354838709677421</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="7"/>
         <v>0.41474654377880199</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5430,19 +5575,18 @@
         <v>294.93087557603695</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.29493087557603698</v>
-      </c>
-      <c r="E14">
+        <v>97.327188940092199</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>97.327188940092199</v>
-      </c>
-      <c r="F14">
+        <v>0.17695852534562218</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>0.17695852534562218</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
         <v>0.1179723502304148</v>
       </c>
       <c r="H14">
@@ -5450,19 +5594,21 @@
         <v>0.53326595840000168</v>
       </c>
       <c r="I14">
+        <v>0.8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.15483870967741942</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="5"/>
-        <v>73.732718894009238</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>0.15483870967741942</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
         <v>0.14746543778801849</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5474,19 +5620,18 @@
         <v>875.57603686635969</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.87557603686635965</v>
-      </c>
-      <c r="E15">
+        <v>288.9400921658987</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="2"/>
-        <v>288.9400921658987</v>
-      </c>
-      <c r="F15">
+        <v>0.52534562211981572</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.52534562211981572</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
         <v>0.35023041474654387</v>
       </c>
       <c r="H15">
@@ -5494,19 +5639,21 @@
         <v>1.5831333140000048</v>
       </c>
       <c r="I15">
+        <v>0.8</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.45967741935483886</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="5"/>
-        <v>218.89400921658992</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.45967741935483886</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="7"/>
         <v>0.43778801843317983</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5518,19 +5665,18 @@
         <v>202.76497695852541</v>
       </c>
       <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.20276497695852541</v>
-      </c>
-      <c r="E16">
+        <v>66.912442396313381</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>66.912442396313381</v>
-      </c>
-      <c r="F16">
+        <v>0.12165898617511524</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>0.12165898617511524</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
         <v>8.1105990783410173E-2</v>
       </c>
       <c r="H16">
@@ -5538,19 +5684,21 @@
         <v>0.36662034640000113</v>
       </c>
       <c r="I16">
+        <v>0.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.10645161290322584</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="5"/>
-        <v>50.691244239631352</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>0.10645161290322584</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
         <v>0.10138248847926271</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5562,19 +5710,18 @@
         <v>1612.9032258064522</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>1.6129032258064522</v>
-      </c>
-      <c r="E17">
+        <v>532.25806451612925</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="2"/>
-        <v>532.25806451612925</v>
-      </c>
-      <c r="F17">
+        <v>0.96774193548387122</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>0.96774193548387122</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
         <v>0.64516129032258096</v>
       </c>
       <c r="H17">
@@ -5582,19 +5729,21 @@
         <v>2.9162982100000092</v>
       </c>
       <c r="I17">
+        <v>0.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.84677419354838745</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="5"/>
-        <v>403.22580645161304</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>0.84677419354838745</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="7"/>
         <v>0.80645161290322609</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5606,19 +5755,18 @@
         <v>294.93087557603695</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.29493087557603698</v>
-      </c>
-      <c r="E18">
+        <v>97.327188940092199</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="2"/>
-        <v>97.327188940092199</v>
-      </c>
-      <c r="F18">
+        <v>0.17695852534562218</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>0.17695852534562218</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
         <v>0.1179723502304148</v>
       </c>
       <c r="H18">
@@ -5626,19 +5774,21 @@
         <v>0.53326595840000168</v>
       </c>
       <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.15483870967741942</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="5"/>
-        <v>73.732718894009238</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>0.15483870967741942</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="7"/>
         <v>0.14746543778801849</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5650,19 +5800,18 @@
         <v>801.84331797235041</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.80184331797235042</v>
-      </c>
-      <c r="E19">
+        <v>264.60829493087562</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>264.60829493087562</v>
-      </c>
-      <c r="F19">
+        <v>0.48110599078341021</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>0.48110599078341021</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
         <v>0.32073732718894021</v>
       </c>
       <c r="H19">
@@ -5670,19 +5819,21 @@
         <v>1.4498168244000043</v>
       </c>
       <c r="I19">
+        <v>0.8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.42096774193548397</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="5"/>
-        <v>200.4608294930876</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>0.42096774193548397</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="7"/>
         <v>0.40092165898617521</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5694,19 +5845,18 @@
         <v>322.58064516129042</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.32258064516129042</v>
-      </c>
-      <c r="E20">
+        <v>106.45161290322584</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v>106.45161290322584</v>
-      </c>
-      <c r="F20">
+        <v>0.19354838709677424</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>0.19354838709677424</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
         <v>0.12903225806451618</v>
       </c>
       <c r="H20">
@@ -5714,19 +5864,21 @@
         <v>0.5832596420000018</v>
       </c>
       <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.16935483870967749</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="5"/>
-        <v>80.645161290322605</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
-        <v>0.16935483870967749</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="7"/>
         <v>0.16129032258064521</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5738,19 +5890,18 @@
         <v>221.19815668202773</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.22119815668202772</v>
-      </c>
-      <c r="E21">
+        <v>72.995391705069153</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="2"/>
-        <v>72.995391705069153</v>
-      </c>
-      <c r="F21">
+        <v>0.13271889400921663</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="3"/>
-        <v>0.13271889400921663</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
         <v>8.8479262672811088E-2</v>
       </c>
       <c r="H21">
@@ -5758,19 +5909,21 @@
         <v>0.39994946880000121</v>
       </c>
       <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.11612903225806456</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="5"/>
-        <v>55.299539170506932</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>0.11612903225806456</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="7"/>
         <v>0.11059907834101386</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5782,19 +5935,18 @@
         <v>976.95852534562232</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.97695852534562233</v>
-      </c>
-      <c r="E22">
+        <v>322.39631336405535</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
-        <v>322.39631336405535</v>
-      </c>
-      <c r="F22">
+        <v>0.58617511520737342</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>0.58617511520737342</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
         <v>0.39078341013824897</v>
       </c>
       <c r="H22">
@@ -5802,16 +5954,18 @@
         <v>1.7664434872000052</v>
       </c>
       <c r="I22">
+        <v>0.8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.51290322580645176</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="5"/>
-        <v>244.23963133640558</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="6"/>
-        <v>0.51290322580645176</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="7"/>
         <v>0.48847926267281117</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4ACD0-D47C-40C5-84FE-FBDBC9FA6ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219DB7AF-EF39-4A06-BD4F-B57B62F3BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -574,9 +583,9 @@
       <selection activeCell="G32" sqref="G1:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -603,7 +612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -661,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -690,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -719,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -748,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -777,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -806,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -835,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -864,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -893,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -922,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -951,7 +960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -980,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1488,9 +1497,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1520,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1560,13 +1569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD136597-E3BC-4DC3-8333-00A9950B6CD1}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1611,7 +1620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1631,7 +1640,9 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1">
         <v>1.0449999999999999</v>
@@ -1652,7 +1663,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1672,7 +1683,9 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
         <v>1.01</v>
@@ -1693,7 +1706,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1713,7 +1726,9 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
         <v>1.01</v>
@@ -1734,7 +1749,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1754,7 +1769,9 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>1.0820000000000001</v>
@@ -1775,7 +1792,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1795,7 +1812,9 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>1.071</v>
@@ -1819,6 +1838,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1826,13 +1846,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63F646-96F5-4CF3-9F80-204F988A375B}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -1880,7 +1900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1928,7 +1948,7 @@
         <v>10.018800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1976,7 +1996,7 @@
         <v>28.784448000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2024,7 +2044,7 @@
         <v>30.265488000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2072,7 +2092,7 @@
         <v>6.6036960000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>34.551791999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>30.718512</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>7.2135360000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>20.211839999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2312,7 +2332,7 @@
         <v>14.28768</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2360,7 +2380,7 @@
         <v>7.3180800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>2.7867510000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2456,7 +2476,7 @@
         <v>1.420056</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2504,7 +2524,7 @@
         <v>2.163843</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>2.1747329999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>2.094147</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>2.3794650000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2696,7 +2716,7 @@
         <v>1.4069879999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2744,7 +2764,7 @@
         <v>0.74051999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>2.2760099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>0.92020500000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>0.81566099999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>1.6324110000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2984,7 +3004,7 @@
         <v>0.25700400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>2.1997800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>1.9493100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3128,7 +3148,7 @@
         <v>2.9403000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>3.5849880000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>4.1382000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>2.2727430000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3320,7 +3340,7 @@
         <v>4.5226170000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3368,7 +3388,7 @@
         <v>6.5634030000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3416,7 +3436,7 @@
         <v>4.9364369999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3464,7 +3484,7 @@
         <v>34.847999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3527,9 +3547,9 @@
       <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -3568,7 +3588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3608,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3648,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3688,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3848,7 +3868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3968,7 +3988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4128,7 +4148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4248,7 +4268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4328,7 +4348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4368,7 +4388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4423,9 +4443,9 @@
       <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -4500,7 +4520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4569,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4638,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4699,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4829,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4890,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4973,21 +4993,21 @@
       <selection activeCell="L2" sqref="L2:L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -5022,7 +5042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5068,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5113,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5158,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5203,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5248,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5293,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5338,7 +5358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5383,7 +5403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5428,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5518,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5563,7 +5583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5608,7 +5628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5653,7 +5673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5698,7 +5718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5743,7 +5763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5788,7 +5808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5833,7 +5853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5878,7 +5898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5923,7 +5943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219DB7AF-EF39-4A06-BD4F-B57B62F3BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC34BA5-1BD5-47CA-968F-D57581F485B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>in_service</t>
   </si>
@@ -250,6 +250,22 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8EACC2-02FC-466F-A06E-1922E4F9B1C6}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1555,9 @@
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -1569,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD136597-E3BC-4DC3-8333-00A9950B6CD1}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1651,9 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="1">
         <v>40</v>
       </c>
@@ -1676,7 +1696,9 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
@@ -1719,7 +1741,9 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -1762,7 +1786,9 @@
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -1805,7 +1831,9 @@
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -3544,7 +3572,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4990,7 +5018,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L22"/>
+      <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219DB7AF-EF39-4A06-BD4F-B57B62F3BFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB7D65-462F-4B8C-84BD-66E30AEFF930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
     <sheet name="externalgrid" sheetId="2" r:id="rId2"/>
-    <sheet name="generator" sheetId="3" r:id="rId3"/>
-    <sheet name="line" sheetId="4" r:id="rId4"/>
+    <sheet name="line" sheetId="4" r:id="rId3"/>
+    <sheet name="generator" sheetId="3" r:id="rId4"/>
     <sheet name="load" sheetId="5" r:id="rId5"/>
     <sheet name="transformer" sheetId="6" r:id="rId6"/>
     <sheet name="motorload" sheetId="7" r:id="rId7"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>in_service</t>
   </si>
@@ -250,6 +241,23 @@
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G5</t>
   </si>
 </sst>
 </file>
@@ -583,9 +591,9 @@
       <selection activeCell="G32" sqref="G1:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -612,7 +620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -641,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -670,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -699,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -728,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -757,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -786,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -815,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -844,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -873,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -902,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -931,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -960,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -989,7 +997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1497,9 +1505,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1529,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1566,273 +1574,1693 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD136597-E3BC-4DC3-8333-00A9950B6CD1}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63F646-96F5-4CF3-9F80-204F988A375B}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>40</v>
+        <v>803.81284389846098</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>140</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>99999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
       <c r="J2" s="1">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>140</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
+        <v>3.3454079999999999</v>
+      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>40</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10.018800000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>0</v>
+        <v>621.12810664881101</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
+        <v>7.875648</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1">
+        <v>28.784448000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>0</v>
+        <v>560.23319423226098</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I4" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>1.01</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>100</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
+        <v>9.9316800000000001</v>
+      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1">
+        <v>30.265488000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0</v>
+        <v>127.879316074755</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>100</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
+        <v>2.2999679999999998</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6.6036960000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>636.35183475294798</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8.2241280000000003</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="1">
+        <v>34.551791999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>569.36743109474298</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.123343999999999</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1">
+        <v>30.718512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>137.01355293723699</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.0734560000000002</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7.2135360000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>310.56405332440499</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.0150400000000008</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1">
+        <v>20.211839999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>258.80337777033799</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.6522079999999999</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14.28768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>137.01355293723699</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.0908799999999998</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7.3180800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.3405590000000001</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.7867510000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.72091799999999995</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>14</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.420056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>1.071</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.0291049999999999</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.163843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I15" s="1">
         <v>100</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-24</v>
+      <c r="J15" s="1">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.4066900000000002</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.1747329999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.57063600000000003</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.094147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.1684969999999999</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.3794650000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.69587100000000002</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.4069879999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.37025999999999998</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.74051999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.019304</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.2760099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.35283599999999998</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>16</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.92020500000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.37897199999999998</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.81566099999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.79170300000000005</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.6324110000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1">
+        <v>22</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.12632399999999999</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.25700400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.089</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <v>22</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.1997800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.2523500000000001</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.9493100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.4374800000000001</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <v>23</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.9403000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2.052765</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
+        <v>24</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3.5849880000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>27</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.770416</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>25</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.1382000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>28</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.190277</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1">
+        <v>26</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2.2727430000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1">
+        <v>29</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2.3936220000000001</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1">
+        <v>28</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4.5226170000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.4869780000000001</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <v>29</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1">
+        <v>6.5634030000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>31</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2.612511</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1">
+        <v>29</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4.9364369999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>651.57556285708597</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>11.081664</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1">
+        <v>27</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="1">
+        <v>34.847999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>197.90846535378699</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>99999</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1">
+        <v>33</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.9446560000000002</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <v>27</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="1">
+        <v>10.436976</v>
       </c>
     </row>
   </sheetData>
@@ -1843,1693 +3271,283 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63F646-96F5-4CF3-9F80-204F988A375B}">
-  <dimension ref="A1:P35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD136597-E3BC-4DC3-8333-00A9950B6CD1}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>140</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>803.81284389846098</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3.3454079999999999</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10.018800000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>621.12810664881101</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.875648</v>
-      </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
       <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1">
-        <v>28.784448000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>560.23319423226098</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I4" s="1">
         <v>100</v>
       </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+        <v>1.01</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9316800000000001</v>
-      </c>
-      <c r="M4" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
       <c r="N4" s="1">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30.265488000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>127.879316074755</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I5" s="1">
         <v>100</v>
       </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>2.2999679999999998</v>
-      </c>
-      <c r="M5" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
       <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6.6036960000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>636.35183475294798</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I6" s="1">
         <v>100</v>
       </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
+        <v>1.071</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>8.2241280000000003</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
       <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="1">
-        <v>34.551791999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>569.36743109474298</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>100</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>10.123343999999999</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1">
-        <v>30.718512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>137.01355293723699</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2.0734560000000002</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>5</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1">
-        <v>7.2135360000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>310.56405332440499</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8.0150400000000008</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="1">
-        <v>20.211839999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>258.80337777033799</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.6522079999999999</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1">
-        <v>14.28768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>137.01355293723699</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2.0908799999999998</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1">
-        <v>7.3180800000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1.3405590000000001</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1">
-        <v>13</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2.7867510000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1">
-        <v>11</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.72091799999999995</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>14</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1.420056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I14" s="1">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1">
-        <v>12</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.0291049999999999</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2.163843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I15" s="1">
-        <v>100</v>
-      </c>
-      <c r="J15" s="1">
-        <v>13</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2.4066900000000002</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
-        <v>14</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2.1747329999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>100</v>
-      </c>
-      <c r="J16" s="1">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.57063600000000003</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1">
-        <v>16</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2.094147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>100</v>
-      </c>
-      <c r="J17" s="1">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.1684969999999999</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <v>17</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2.3794650000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>100</v>
-      </c>
-      <c r="J18" s="1">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.69587100000000002</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1">
-        <v>18</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1.4069879999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-      <c r="J19" s="1">
-        <v>17</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.37025999999999998</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1">
-        <v>19</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.74051999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I20" s="1">
-        <v>100</v>
-      </c>
-      <c r="J20" s="1">
-        <v>18</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.019304</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <v>19</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2.2760099999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.35283599999999998</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>16</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.92020500000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I22" s="1">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1">
-        <v>20</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.37897199999999998</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.81566099999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>100</v>
-      </c>
-      <c r="J23" s="1">
-        <v>21</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.79170300000000005</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1">
-        <v>21</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1.6324110000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>100</v>
-      </c>
-      <c r="J24" s="1">
-        <v>22</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.12632399999999999</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1">
-        <v>21</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.25700400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I25" s="1">
-        <v>100</v>
-      </c>
-      <c r="J25" s="1">
-        <v>23</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1.089</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1">
-        <v>22</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="1">
-        <v>2.1997800000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>21</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I26" s="1">
-        <v>100</v>
-      </c>
-      <c r="J26" s="1">
-        <v>24</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1.2523500000000001</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1">
-        <v>23</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1.9493100000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I27" s="1">
-        <v>100</v>
-      </c>
-      <c r="J27" s="1">
-        <v>25</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1.4374800000000001</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1">
-        <v>23</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2.9403000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>23</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I28" s="1">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1">
-        <v>26</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>2.052765</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1">
-        <v>24</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="1">
-        <v>3.5849880000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>24</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I29" s="1">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2.770416</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1">
-        <v>25</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4.1382000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>24</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I30" s="1">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1">
-        <v>28</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1.190277</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>26</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="1">
-        <v>2.2727430000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1">
-        <v>29</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>2.3936220000000001</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>28</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="1">
-        <v>4.5226170000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>26</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I32" s="1">
-        <v>100</v>
-      </c>
-      <c r="J32" s="1">
-        <v>30</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>3.4869780000000001</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1">
-        <v>29</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="1">
-        <v>6.5634030000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>28</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I33" s="1">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1">
-        <v>31</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2.612511</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>29</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="1">
-        <v>4.9364369999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>651.57556285708597</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I34" s="1">
-        <v>100</v>
-      </c>
-      <c r="J34" s="1">
-        <v>32</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1">
-        <v>11.081664</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1">
-        <v>27</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" s="1">
-        <v>34.847999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>197.90846535378699</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>99999</v>
-      </c>
-      <c r="I35" s="1">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1">
-        <v>33</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2.9446560000000002</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1">
-        <v>27</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="1">
-        <v>10.436976</v>
+      <c r="O6" s="1">
+        <v>-24</v>
       </c>
     </row>
   </sheetData>
@@ -3544,12 +3562,12 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -3588,7 +3606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3628,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3668,7 +3686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3748,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3788,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3828,7 +3846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3868,7 +3886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3908,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3988,7 +4006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4068,7 +4086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4108,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4188,7 +4206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4228,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4268,7 +4286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4308,7 +4326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4348,7 +4366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4440,12 +4458,17 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="25" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>21</v>
@@ -4520,7 +4543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4589,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4658,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4719,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4780,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4849,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4910,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4990,24 +5013,24 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -5042,7 +5065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5051,44 +5074,22 @@
       </c>
       <c r="C2">
         <f>2000*K2</f>
-        <v>2000.0000000000005</v>
-      </c>
-      <c r="D2">
-        <f>2*K2</f>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="E2">
-        <f>K2*660</f>
-        <v>660.00000000000011</v>
-      </c>
-      <c r="F2">
-        <f>1.2*K2</f>
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>K2*0.8</f>
-        <v>0.80000000000000027</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <f>load!K2*0.15</f>
-        <v>3.6162097804000108</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0.8</v>
       </c>
-      <c r="J2">
-        <f>K2*1.05</f>
-        <v>1.0500000000000003</v>
-      </c>
-      <c r="K2">
-        <f>H2/3.61620978040001</f>
-        <v>1.0000000000000002</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5097,43 +5098,22 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C22" si="0">2000*K3</f>
-        <v>221.19815668202773</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E22" si="1">K3*660</f>
-        <v>72.995391705069153</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F22" si="2">1.2*K3</f>
-        <v>0.13271889400921663</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" si="3">K3*0.8</f>
-        <v>8.8479262672811088E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <f>load!K3*0.15</f>
-        <v>0.39994946880000121</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
         <v>0.8</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J22" si="4">K3*1.05</f>
-        <v>0.11612903225806456</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K22" si="5">H3/3.61620978040001</f>
-        <v>0.11059907834101386</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5142,43 +5122,22 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>700.46082949308777</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>231.15207373271895</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.42027649769585262</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
-        <v>0.28018433179723512</v>
+        <v>0.9</v>
       </c>
       <c r="H4">
-        <f>load!K4*0.15</f>
-        <v>1.2665066512000038</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
         <v>0.8</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0.36774193548387107</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>0.35023041474654387</v>
-      </c>
       <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5187,43 +5146,22 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>8682.0276497695868</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>2865.0691244239638</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>5.209216589861752</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>3.4728110599078352</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
-        <f>load!K5*0.15</f>
-        <v>15.698016650400048</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
         <v>0.8</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>4.5580645161290336</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.3410138248847936</v>
-      </c>
       <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5232,43 +5170,22 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2101.3824884792634</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>693.45622119815687</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>1.2608294930875579</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0.84055299539170536</v>
+        <v>0.9</v>
       </c>
       <c r="H6">
-        <f>load!K6*0.15</f>
-        <v>3.7995199536000115</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
         <v>0.8</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>1.1032258064516134</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>1.0506912442396317</v>
-      </c>
       <c r="L6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5277,43 +5194,22 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2764.9769585253466</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>912.44239631336438</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1.658986175115208</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1.1059907834101386</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <f>load!K7*0.15</f>
-        <v>4.9993683600000152</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
         <v>0.8</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>1.4516129032258069</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>1.3824884792626733</v>
-      </c>
       <c r="L7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5322,43 +5218,22 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>534.56221198156697</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>176.4055299539171</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.32073732718894016</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0.21382488479262679</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
-        <f>load!K8*0.15</f>
-        <v>0.9665445496000028</v>
+        <v>0.2</v>
       </c>
       <c r="I8">
         <v>0.8</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>0.28064516129032269</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>0.26728110599078347</v>
-      </c>
       <c r="L8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5367,43 +5242,22 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1032.2580645161293</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>340.64516129032262</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.61935483870967756</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0.41290322580645172</v>
+        <v>0.9</v>
       </c>
       <c r="H9">
-        <f>load!K9*0.15</f>
-        <v>1.8664308544000054</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
         <v>0.8</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0.5419354838709679</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>0.51612903225806461</v>
-      </c>
       <c r="L9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5412,43 +5266,22 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>571.42857142857167</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>188.57142857142864</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714297</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.22857142857142865</v>
+        <v>0.9</v>
       </c>
       <c r="H10">
-        <f>load!K10*0.15</f>
-        <v>1.0332027944000033</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
         <v>0.8</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>0.28571428571428581</v>
-      </c>
       <c r="L10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5457,43 +5290,22 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>755.76036866359459</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>249.40092165898622</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.45345622119815676</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0.30230414746543788</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <f>load!K11*0.15</f>
-        <v>1.3664940184000041</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
         <v>0.8</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0.39677419354838722</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>0.37788018433179732</v>
-      </c>
       <c r="L11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5502,43 +5314,22 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>322.58064516129042</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>106.45161290322584</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.19354838709677424</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0.12903225806451618</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <f>load!K12*0.15</f>
-        <v>0.5832596420000018</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
         <v>0.8</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0.16935483870967749</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>0.16129032258064521</v>
-      </c>
       <c r="L12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5547,43 +5338,22 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>829.49308755760399</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>273.73271889400934</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0.49769585253456239</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0.33179723502304159</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <f>load!K13*0.15</f>
-        <v>1.4998105080000046</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
         <v>0.8</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>0.4354838709677421</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>0.41474654377880199</v>
-      </c>
       <c r="L13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5592,43 +5362,22 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>294.93087557603695</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>97.327188940092199</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0.17695852534562218</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0.1179723502304148</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <f>load!K14*0.15</f>
-        <v>0.53326595840000168</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
         <v>0.8</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.15483870967741942</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>0.14746543778801849</v>
-      </c>
       <c r="L14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5637,43 +5386,22 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>875.57603686635969</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>288.9400921658987</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.52534562211981572</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0.35023041474654387</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <f>load!K15*0.15</f>
-        <v>1.5831333140000048</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0.8</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>0.45967741935483886</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>0.43778801843317983</v>
-      </c>
       <c r="L15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5682,43 +5410,22 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>202.76497695852541</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>66.912442396313381</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.12165898617511524</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>8.1105990783410173E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H16">
-        <f>load!K16*0.15</f>
-        <v>0.36662034640000113</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0.8</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>0.10645161290322584</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>0.10138248847926271</v>
-      </c>
       <c r="L16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5727,43 +5434,22 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1612.9032258064522</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>532.25806451612925</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0.96774193548387122</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.64516129032258096</v>
+        <v>0.9</v>
       </c>
       <c r="H17">
-        <f>load!K17*0.15</f>
-        <v>2.9162982100000092</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
         <v>0.8</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>0.84677419354838745</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>0.80645161290322609</v>
-      </c>
       <c r="L17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5772,43 +5458,22 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>294.93087557603695</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>97.327188940092199</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0.17695852534562218</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.1179723502304148</v>
+        <v>0.9</v>
       </c>
       <c r="H18">
-        <f>load!K18*0.15</f>
-        <v>0.53326595840000168</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
         <v>0.8</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>0.15483870967741942</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
-        <v>0.14746543778801849</v>
-      </c>
       <c r="L18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5817,43 +5482,22 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>801.84331797235041</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>264.60829493087562</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0.48110599078341021</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.32073732718894021</v>
+        <v>0.9</v>
       </c>
       <c r="H19">
-        <f>load!K19*0.15</f>
-        <v>1.4498168244000043</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
         <v>0.8</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>0.42096774193548397</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
-        <v>0.40092165898617521</v>
-      </c>
       <c r="L19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5862,43 +5506,22 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>322.58064516129042</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>106.45161290322584</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>0.19354838709677424</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>0.12903225806451618</v>
+        <v>0.9</v>
       </c>
       <c r="H20">
-        <f>load!K20*0.15</f>
-        <v>0.5832596420000018</v>
+        <v>0.2</v>
       </c>
       <c r="I20">
         <v>0.8</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>0.16935483870967749</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>0.16129032258064521</v>
-      </c>
       <c r="L20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5907,43 +5530,22 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>221.19815668202773</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>72.995391705069153</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0.13271889400921663</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>8.8479262672811088E-2</v>
+        <v>0.9</v>
       </c>
       <c r="H21">
-        <f>load!K21*0.15</f>
-        <v>0.39994946880000121</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
         <v>0.8</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>0.11612903225806456</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
-        <v>0.11059907834101386</v>
-      </c>
       <c r="L21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5952,37 +5554,16 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>976.95852534562232</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>322.39631336405535</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>0.58617511520737342</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>0.39078341013824897</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <f>load!K22*0.15</f>
-        <v>1.7664434872000052</v>
+        <v>0.2</v>
       </c>
       <c r="I22">
         <v>0.8</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>0.51290322580645176</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
-        <v>0.48847926267281117</v>
       </c>
       <c r="L22">
         <v>20</v>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB7D65-462F-4B8C-84BD-66E30AEFF930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92090D69-2EC8-49F3-A124-55205688F10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>in_service</t>
   </si>
@@ -190,19 +190,7 @@
     <t>hv</t>
   </si>
   <si>
-    <t>load_number</t>
-  </si>
-  <si>
-    <t>full_load_current</t>
-  </si>
-  <si>
     <t>power_factor_full_load</t>
-  </si>
-  <si>
-    <t>efficiency_full_load</t>
-  </si>
-  <si>
-    <t>inrush_current</t>
   </si>
   <si>
     <t>bus</t>
@@ -258,6 +246,42 @@
   </si>
   <si>
     <t>G5</t>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_p_mw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_p_mw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_q_mvar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_load_current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inrush_current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency_full_load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -280,12 +304,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,11 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -588,7 +626,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G1:G32"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1547,7 +1585,9 @@
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -1570,6 +1610,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1578,7 +1619,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3272,15 +3313,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD136597-E3BC-4DC3-8333-00A9950B6CD1}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -3313,19 +3354,22 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3339,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1">
         <v>40</v>
@@ -3370,7 +3414,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3384,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3415,7 +3459,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3429,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3460,7 +3504,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3474,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -3505,7 +3549,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3519,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3559,15 +3603,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB38B-492D-4129-A13F-B5A7BB395F48}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -3603,10 +3647,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3620,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -3645,8 +3689,12 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>0.15*K2*1000/0.736</f>
+        <v>4913.3285059782756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3660,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
@@ -3685,8 +3733,12 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N22" si="1">0.15*K3*1000/0.736</f>
+        <v>543.40960434782778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3725,8 +3777,12 @@
       <c r="M4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1720.7970804347881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3765,8 +3821,12 @@
       <c r="M5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>21328.826970652241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3805,8 +3865,12 @@
       <c r="M6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>5162.3912413043636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3845,8 +3909,12 @@
       <c r="M7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>6792.6200543478462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3885,8 +3953,12 @@
       <c r="M8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1313.239877173917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3925,8 +3997,12 @@
       <c r="M9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>2535.9114869565292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3965,8 +4041,12 @@
       <c r="M10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1403.8081445652219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4005,8 +4085,12 @@
       <c r="M11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1856.6494815217447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4045,8 +4129,12 @@
       <c r="M12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>792.47233967391549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4085,8 +4173,12 @@
       <c r="M13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>2037.786016304354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4125,8 +4217,12 @@
       <c r="M14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>724.54613913043704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4165,8 +4261,12 @@
       <c r="M15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>2150.9963505434848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4205,8 +4305,12 @@
       <c r="M16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>498.12547065217547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4245,8 +4349,12 @@
       <c r="M17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>3962.3616983695774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4285,8 +4393,12 @@
       <c r="M18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>724.54613913043704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4325,8 +4437,12 @@
       <c r="M19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1969.8598157608753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4365,8 +4481,12 @@
       <c r="M20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>792.47233967391549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4405,8 +4525,12 @@
       <c r="M21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>543.40960434782778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4444,6 +4568,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1">
         <v>21</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>2400.0590858695723</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +4586,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5012,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0CA76C-0793-402B-905F-2F7604D9F2D1}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5031,38 +5159,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5073,20 +5201,34 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>2000*K2</f>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>28.15</v>
       </c>
       <c r="G2">
         <v>0.9</v>
       </c>
       <c r="H2">
+        <v>0.85</v>
+      </c>
+      <c r="I2">
         <v>0.2</v>
       </c>
-      <c r="I2">
-        <v>0.8</v>
+      <c r="J2">
+        <v>168.9</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4913.3285059782802</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5097,20 +5239,34 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">2000*K3</f>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>28.15</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
+        <v>0.85</v>
+      </c>
+      <c r="I3">
         <v>0.2</v>
       </c>
-      <c r="I3">
-        <v>0.8</v>
+      <c r="J3">
+        <v>168.9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>543.40960434782801</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5121,20 +5277,34 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>28.15</v>
       </c>
       <c r="G4">
         <v>0.9</v>
       </c>
       <c r="H4">
+        <v>0.85</v>
+      </c>
+      <c r="I4">
         <v>0.2</v>
       </c>
-      <c r="I4">
-        <v>0.8</v>
+      <c r="J4">
+        <v>168.9</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1720.7970804347881</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5145,20 +5315,34 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>28.15</v>
       </c>
       <c r="G5">
         <v>0.9</v>
       </c>
       <c r="H5">
+        <v>0.85</v>
+      </c>
+      <c r="I5">
         <v>0.2</v>
       </c>
-      <c r="I5">
-        <v>0.8</v>
+      <c r="J5">
+        <v>168.9</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>21328.826970652241</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -5169,20 +5353,34 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>28.15</v>
       </c>
       <c r="G6">
         <v>0.9</v>
       </c>
       <c r="H6">
+        <v>0.85</v>
+      </c>
+      <c r="I6">
         <v>0.2</v>
       </c>
-      <c r="I6">
-        <v>0.8</v>
+      <c r="J6">
+        <v>168.9</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>5162.3912413043636</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -5193,20 +5391,34 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>28.15</v>
       </c>
       <c r="G7">
         <v>0.9</v>
       </c>
       <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="I7">
         <v>0.2</v>
       </c>
-      <c r="I7">
-        <v>0.8</v>
+      <c r="J7">
+        <v>168.9</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>6792.6200543478462</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -5217,20 +5429,34 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>28.15</v>
       </c>
       <c r="G8">
         <v>0.9</v>
       </c>
       <c r="H8">
+        <v>0.85</v>
+      </c>
+      <c r="I8">
         <v>0.2</v>
       </c>
-      <c r="I8">
-        <v>0.8</v>
+      <c r="J8">
+        <v>168.9</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>1313.239877173917</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -5241,20 +5467,34 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>28.15</v>
       </c>
       <c r="G9">
         <v>0.9</v>
       </c>
       <c r="H9">
+        <v>0.85</v>
+      </c>
+      <c r="I9">
         <v>0.2</v>
       </c>
-      <c r="I9">
-        <v>0.8</v>
+      <c r="J9">
+        <v>168.9</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>2535.9114869565292</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5265,20 +5505,34 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>28.15</v>
       </c>
       <c r="G10">
         <v>0.9</v>
       </c>
       <c r="H10">
+        <v>0.85</v>
+      </c>
+      <c r="I10">
         <v>0.2</v>
       </c>
-      <c r="I10">
-        <v>0.8</v>
+      <c r="J10">
+        <v>168.9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>1403.8081445652219</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5289,20 +5543,34 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>28.15</v>
       </c>
       <c r="G11">
         <v>0.9</v>
       </c>
       <c r="H11">
+        <v>0.85</v>
+      </c>
+      <c r="I11">
         <v>0.2</v>
       </c>
-      <c r="I11">
-        <v>0.8</v>
+      <c r="J11">
+        <v>168.9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>1856.6494815217447</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5313,20 +5581,34 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>28.15</v>
       </c>
       <c r="G12">
         <v>0.9</v>
       </c>
       <c r="H12">
+        <v>0.85</v>
+      </c>
+      <c r="I12">
         <v>0.2</v>
       </c>
-      <c r="I12">
-        <v>0.8</v>
+      <c r="J12">
+        <v>168.9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>792.47233967391549</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5337,20 +5619,34 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>28.15</v>
       </c>
       <c r="G13">
         <v>0.9</v>
       </c>
       <c r="H13">
+        <v>0.85</v>
+      </c>
+      <c r="I13">
         <v>0.2</v>
       </c>
-      <c r="I13">
-        <v>0.8</v>
+      <c r="J13">
+        <v>168.9</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>2037.786016304354</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5361,20 +5657,34 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>28.15</v>
       </c>
       <c r="G14">
         <v>0.9</v>
       </c>
       <c r="H14">
+        <v>0.85</v>
+      </c>
+      <c r="I14">
         <v>0.2</v>
       </c>
-      <c r="I14">
-        <v>0.8</v>
+      <c r="J14">
+        <v>168.9</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>724.54613913043704</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5385,20 +5695,34 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>28.15</v>
       </c>
       <c r="G15">
         <v>0.9</v>
       </c>
       <c r="H15">
+        <v>0.85</v>
+      </c>
+      <c r="I15">
         <v>0.2</v>
       </c>
-      <c r="I15">
-        <v>0.8</v>
+      <c r="J15">
+        <v>168.9</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>2150.9963505434848</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5409,20 +5733,34 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>28.15</v>
       </c>
       <c r="G16">
         <v>0.9</v>
       </c>
       <c r="H16">
+        <v>0.85</v>
+      </c>
+      <c r="I16">
         <v>0.2</v>
       </c>
-      <c r="I16">
-        <v>0.8</v>
+      <c r="J16">
+        <v>168.9</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>498.12547065217547</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5433,20 +5771,34 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>28.15</v>
       </c>
       <c r="G17">
         <v>0.9</v>
       </c>
       <c r="H17">
+        <v>0.85</v>
+      </c>
+      <c r="I17">
         <v>0.2</v>
       </c>
-      <c r="I17">
-        <v>0.8</v>
+      <c r="J17">
+        <v>168.9</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>3962.3616983695774</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5457,20 +5809,34 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>28.15</v>
       </c>
       <c r="G18">
         <v>0.9</v>
       </c>
       <c r="H18">
+        <v>0.85</v>
+      </c>
+      <c r="I18">
         <v>0.2</v>
       </c>
-      <c r="I18">
-        <v>0.8</v>
+      <c r="J18">
+        <v>168.9</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>724.54613913043704</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5481,20 +5847,34 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>28.15</v>
       </c>
       <c r="G19">
         <v>0.9</v>
       </c>
       <c r="H19">
+        <v>0.85</v>
+      </c>
+      <c r="I19">
         <v>0.2</v>
       </c>
-      <c r="I19">
-        <v>0.8</v>
+      <c r="J19">
+        <v>168.9</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>1969.8598157608753</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5505,20 +5885,34 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>28.15</v>
       </c>
       <c r="G20">
         <v>0.9</v>
       </c>
       <c r="H20">
+        <v>0.85</v>
+      </c>
+      <c r="I20">
         <v>0.2</v>
       </c>
-      <c r="I20">
-        <v>0.8</v>
+      <c r="J20">
+        <v>168.9</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>792.47233967391549</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -5529,20 +5923,34 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>28.15</v>
       </c>
       <c r="G21">
         <v>0.9</v>
       </c>
       <c r="H21">
+        <v>0.85</v>
+      </c>
+      <c r="I21">
         <v>0.2</v>
       </c>
-      <c r="I21">
-        <v>0.8</v>
+      <c r="J21">
+        <v>168.9</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>543.40960434782778</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -5553,20 +5961,34 @@
         <v>29</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>28.15</v>
       </c>
       <c r="G22">
         <v>0.9</v>
       </c>
       <c r="H22">
+        <v>0.85</v>
+      </c>
+      <c r="I22">
         <v>0.2</v>
       </c>
-      <c r="I22">
-        <v>0.8</v>
+      <c r="J22">
+        <v>168.9</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>2400.05908586957</v>
       </c>
     </row>
   </sheetData>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92090D69-2EC8-49F3-A124-55205688F10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165CA91-BB66-423B-A3C4-6ED687BED728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="100">
   <si>
     <t>in_service</t>
   </si>
@@ -282,6 +282,70 @@
   <si>
     <t>load_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
   </si>
 </sst>
 </file>
@@ -3605,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB38B-492D-4129-A13F-B5A7BB395F48}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3669,8 +3733,8 @@
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H2" s="1">
         <v>21.7</v>
@@ -3713,8 +3777,8 @@
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H3" s="1">
         <v>2.4</v>
@@ -3757,8 +3821,8 @@
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
+      <c r="G4" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H4" s="1">
         <v>7.6</v>
@@ -3801,8 +3865,8 @@
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>3</v>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H5" s="1">
         <v>94.2</v>
@@ -3845,8 +3909,8 @@
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>4</v>
+      <c r="G6" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H6" s="1">
         <v>22.8</v>
@@ -3889,8 +3953,8 @@
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>5</v>
+      <c r="G7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H7" s="1">
         <v>30</v>
@@ -3933,8 +3997,8 @@
       <c r="F8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>6</v>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H8" s="1">
         <v>5.8</v>
@@ -3977,8 +4041,8 @@
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>7</v>
+      <c r="G9" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H9" s="1">
         <v>11.2</v>
@@ -4021,8 +4085,8 @@
       <c r="F10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>8</v>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H10" s="1">
         <v>6.2</v>
@@ -4065,8 +4129,8 @@
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>9</v>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H11" s="1">
         <v>8.1999999999999993</v>
@@ -4109,8 +4173,8 @@
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>10</v>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H12" s="1">
         <v>3.5</v>
@@ -4153,8 +4217,8 @@
       <c r="F13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>11</v>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H13" s="1">
         <v>9</v>
@@ -4197,8 +4261,8 @@
       <c r="F14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>12</v>
+      <c r="G14" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="1">
         <v>3.2</v>
@@ -4241,8 +4305,8 @@
       <c r="F15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
-        <v>13</v>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H15" s="1">
         <v>9.5</v>
@@ -4285,8 +4349,8 @@
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>14</v>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H16" s="1">
         <v>2.2000000000000002</v>
@@ -4329,8 +4393,8 @@
       <c r="F17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="1">
-        <v>15</v>
+      <c r="G17" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H17" s="1">
         <v>17.5</v>
@@ -4373,8 +4437,8 @@
       <c r="F18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="1">
-        <v>16</v>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H18" s="1">
         <v>3.2</v>
@@ -4417,8 +4481,8 @@
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="1">
-        <v>17</v>
+      <c r="G19" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H19" s="1">
         <v>8.6999999999999993</v>
@@ -4461,8 +4525,8 @@
       <c r="F20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
-        <v>18</v>
+      <c r="G20" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H20" s="1">
         <v>3.5</v>
@@ -4505,8 +4569,8 @@
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="1">
-        <v>19</v>
+      <c r="G21" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H21" s="1">
         <v>2.4</v>
@@ -4549,8 +4613,8 @@
       <c r="F22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="1">
-        <v>20</v>
+      <c r="G22" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H22" s="1">
         <v>10.6</v>
@@ -5140,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0CA76C-0793-402B-905F-2F7604D9F2D1}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/IEEE30.xlsx
+++ b/IEEE30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9165CA91-BB66-423B-A3C4-6ED687BED728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957DB479-7C41-4998-A779-F8B95224A7C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>vn_lv_kv</t>
   </si>
   <si>
-    <t>vk_percent</t>
-  </si>
-  <si>
     <t>vkr_percent</t>
   </si>
   <si>
@@ -346,6 +343,10 @@
   </si>
   <si>
     <t>L21</t>
+  </si>
+  <si>
+    <t>vk_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -690,7 +691,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -777,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -806,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -835,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -864,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -893,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -922,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -951,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1009,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1038,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1067,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1125,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1154,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1183,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1212,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1241,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1270,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1299,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1328,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1357,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1386,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1415,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1502,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1531,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1560,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1589,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1644,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1.06</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="G2" s="1">
         <v>360.2</v>
@@ -1682,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63F646-96F5-4CF3-9F80-204F988A375B}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3381,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3418,19 +3419,19 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3447,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1">
         <v>40</v>
@@ -3492,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -3537,10 +3538,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -3582,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -3627,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -3669,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8EB38B-492D-4129-A13F-B5A7BB395F48}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3711,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3728,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1">
         <v>21.7</v>
@@ -3772,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1">
         <v>2.4</v>
@@ -3822,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1">
         <v>7.6</v>
@@ -3866,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1">
         <v>94.2</v>
@@ -3910,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1">
         <v>22.8</v>
@@ -3954,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1">
         <v>30</v>
@@ -3998,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1">
         <v>5.8</v>
@@ -4042,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1">
         <v>11.2</v>
@@ -4086,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1">
         <v>6.2</v>
@@ -4130,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1">
         <v>8.1999999999999993</v>
@@ -4174,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1">
         <v>3.5</v>
@@ -4218,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="1">
         <v>9</v>
@@ -4262,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1">
         <v>3.2</v>
@@ -4306,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1">
         <v>9.5</v>
@@ -4350,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>2.2000000000000002</v>
@@ -4394,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="1">
         <v>17.5</v>
@@ -4438,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1">
         <v>3.2</v>
@@ -4482,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="1">
         <v>8.6999999999999993</v>
@@ -4526,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="1">
         <v>3.5</v>
@@ -4570,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1">
         <v>2.4</v>
@@ -4614,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1">
         <v>10.6</v>
@@ -4650,7 +4651,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4729,10 +4730,10 @@
         <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -4785,7 +4786,7 @@
         <v>-1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1">
@@ -4854,7 +4855,7 @@
         <v>-1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1">
@@ -5045,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
@@ -5175,7 +5176,7 @@
         <v>-1</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
@@ -5224,37 +5225,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
